--- a/data_year/zb/人口/人口抽样调查样本数据/按年龄分女性人口数(人口抽样调查).xlsx
+++ b/data_year/zb/人口/人口抽样调查样本数据/按年龄分女性人口数(人口抽样调查).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V18"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,1151 +543,701 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>29583</v>
+      </c>
+      <c r="C2" t="n">
+        <v>28772</v>
+      </c>
+      <c r="D2" t="n">
+        <v>38322</v>
+      </c>
+      <c r="E2" t="n">
+        <v>53323</v>
+      </c>
+      <c r="F2" t="n">
+        <v>44282</v>
+      </c>
+      <c r="G2" t="n">
+        <v>40240</v>
+      </c>
+      <c r="H2" t="n">
+        <v>47325</v>
+      </c>
+      <c r="I2" t="n">
+        <v>52585</v>
+      </c>
+      <c r="J2" t="n">
+        <v>49419</v>
+      </c>
+      <c r="K2" t="n">
+        <v>28037</v>
+      </c>
+      <c r="L2" t="n">
+        <v>30383</v>
+      </c>
+      <c r="M2" t="n">
+        <v>35453</v>
+      </c>
+      <c r="N2" t="n">
+        <v>26020</v>
+      </c>
+      <c r="O2" t="n">
+        <v>17990</v>
+      </c>
+      <c r="P2" t="n">
+        <v>14432</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>11216</v>
+      </c>
+      <c r="R2" t="n">
+        <v>6640</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2941</v>
+      </c>
+      <c r="T2" t="n">
+        <v>991</v>
+      </c>
+      <c r="U2" t="n">
+        <v>216</v>
+      </c>
       <c r="V2" t="n">
-        <v>616197</v>
+        <v>558170</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28468</v>
+        <v>29287</v>
       </c>
       <c r="C3" t="n">
-        <v>53021</v>
+        <v>27475</v>
       </c>
       <c r="D3" t="n">
-        <v>49720</v>
+        <v>35005</v>
       </c>
       <c r="E3" t="n">
-        <v>40569</v>
+        <v>49709</v>
       </c>
       <c r="F3" t="n">
-        <v>47263</v>
+        <v>44679</v>
       </c>
       <c r="G3" t="n">
-        <v>61628</v>
+        <v>41047</v>
       </c>
       <c r="H3" t="n">
-        <v>61323</v>
+        <v>43530</v>
       </c>
       <c r="I3" t="n">
-        <v>44727</v>
+        <v>52620</v>
       </c>
       <c r="J3" t="n">
-        <v>46561</v>
+        <v>48748</v>
       </c>
       <c r="K3" t="n">
-        <v>36934</v>
+        <v>28057</v>
       </c>
       <c r="L3" t="n">
-        <v>40584</v>
+        <v>30362</v>
       </c>
       <c r="M3" t="n">
-        <v>28071</v>
+        <v>35267</v>
       </c>
       <c r="N3" t="n">
-        <v>22678</v>
+        <v>27499</v>
       </c>
       <c r="O3" t="n">
-        <v>20737</v>
+        <v>18851</v>
       </c>
       <c r="P3" t="n">
-        <v>15650</v>
+        <v>14234</v>
       </c>
       <c r="Q3" t="n">
-        <v>10277</v>
+        <v>11126</v>
       </c>
       <c r="R3" t="n">
-        <v>5695</v>
+        <v>6719</v>
       </c>
       <c r="S3" t="n">
-        <v>2357</v>
+        <v>2921</v>
       </c>
       <c r="T3" t="n">
-        <v>703</v>
+        <v>955</v>
       </c>
       <c r="U3" t="n">
-        <v>134</v>
+        <v>217</v>
       </c>
       <c r="V3" t="n">
-        <v>617098</v>
+        <v>548307</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27784</v>
+        <v>29218</v>
       </c>
       <c r="C4" t="n">
-        <v>48850</v>
+        <v>26422</v>
       </c>
       <c r="D4" t="n">
-        <v>52676</v>
+        <v>32538</v>
       </c>
       <c r="E4" t="n">
-        <v>40440</v>
+        <v>46446</v>
       </c>
       <c r="F4" t="n">
-        <v>44959</v>
+        <v>46443</v>
       </c>
       <c r="G4" t="n">
-        <v>58944</v>
+        <v>40691</v>
       </c>
       <c r="H4" t="n">
-        <v>61084</v>
+        <v>41277</v>
       </c>
       <c r="I4" t="n">
-        <v>50038</v>
+        <v>50753</v>
       </c>
       <c r="J4" t="n">
-        <v>44289</v>
+        <v>48245</v>
       </c>
       <c r="K4" t="n">
-        <v>34788</v>
+        <v>28556</v>
       </c>
       <c r="L4" t="n">
-        <v>42563</v>
+        <v>34178</v>
       </c>
       <c r="M4" t="n">
-        <v>30316</v>
+        <v>34827</v>
       </c>
       <c r="N4" t="n">
-        <v>23333</v>
+        <v>29026</v>
       </c>
       <c r="O4" t="n">
-        <v>19952</v>
+        <v>19638</v>
       </c>
       <c r="P4" t="n">
-        <v>16442</v>
+        <v>14157</v>
       </c>
       <c r="Q4" t="n">
-        <v>10047</v>
+        <v>11199</v>
       </c>
       <c r="R4" t="n">
-        <v>6082</v>
+        <v>7011</v>
       </c>
       <c r="S4" t="n">
-        <v>2379</v>
+        <v>3152</v>
       </c>
       <c r="T4" t="n">
-        <v>759</v>
+        <v>1003</v>
       </c>
       <c r="U4" t="n">
-        <v>171</v>
+        <v>227</v>
       </c>
       <c r="V4" t="n">
-        <v>615898</v>
+        <v>545005</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>407393</v>
+        <v>29506</v>
       </c>
       <c r="C5" t="n">
-        <v>631770</v>
+        <v>26671</v>
       </c>
       <c r="D5" t="n">
-        <v>694399</v>
+        <v>30136</v>
       </c>
       <c r="E5" t="n">
-        <v>536796</v>
+        <v>43894</v>
       </c>
       <c r="F5" t="n">
-        <v>571055</v>
+        <v>49044</v>
       </c>
       <c r="G5" t="n">
-        <v>734887</v>
+        <v>40768</v>
       </c>
       <c r="H5" t="n">
-        <v>838354</v>
+        <v>40032</v>
       </c>
       <c r="I5" t="n">
-        <v>742898</v>
+        <v>49873</v>
       </c>
       <c r="J5" t="n">
-        <v>571720</v>
+        <v>48795</v>
       </c>
       <c r="K5" t="n">
-        <v>483660</v>
+        <v>28807</v>
       </c>
       <c r="L5" t="n">
-        <v>614170</v>
+        <v>38439</v>
       </c>
       <c r="M5" t="n">
-        <v>445014</v>
+        <v>32628</v>
       </c>
       <c r="N5" t="n">
-        <v>325791</v>
+        <v>30826</v>
       </c>
       <c r="O5" t="n">
-        <v>277929</v>
+        <v>21137</v>
       </c>
       <c r="P5" t="n">
-        <v>230928</v>
+        <v>14606</v>
       </c>
       <c r="Q5" t="n">
-        <v>154487</v>
+        <v>11151</v>
       </c>
       <c r="R5" t="n">
-        <v>89978</v>
+        <v>7302</v>
       </c>
       <c r="S5" t="n">
-        <v>36107</v>
+        <v>3360</v>
       </c>
       <c r="T5" t="n">
-        <v>11040</v>
+        <v>1175</v>
       </c>
       <c r="U5" t="n">
-        <v>2509</v>
+        <v>241</v>
       </c>
       <c r="V5" t="n">
-        <v>8400884</v>
+        <v>548391</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>27436</v>
+        <v>575117</v>
       </c>
       <c r="C6" t="n">
-        <v>41079</v>
+        <v>504836</v>
       </c>
       <c r="D6" t="n">
-        <v>49542</v>
+        <v>539299</v>
       </c>
       <c r="E6" t="n">
-        <v>38889</v>
+        <v>745694</v>
       </c>
       <c r="F6" t="n">
-        <v>38242</v>
+        <v>985108</v>
       </c>
       <c r="G6" t="n">
-        <v>47580</v>
+        <v>778959</v>
       </c>
       <c r="H6" t="n">
-        <v>57920</v>
+        <v>738538</v>
       </c>
       <c r="I6" t="n">
-        <v>58505</v>
+        <v>892759</v>
       </c>
       <c r="J6" t="n">
-        <v>38247</v>
+        <v>945069</v>
       </c>
       <c r="K6" t="n">
-        <v>31646</v>
+        <v>536190</v>
       </c>
       <c r="L6" t="n">
-        <v>44964</v>
+        <v>797433</v>
       </c>
       <c r="M6" t="n">
-        <v>33737</v>
+        <v>586543</v>
       </c>
       <c r="N6" t="n">
-        <v>23939</v>
+        <v>606510</v>
       </c>
       <c r="O6" t="n">
-        <v>19536</v>
+        <v>425407</v>
       </c>
       <c r="P6" t="n">
-        <v>16550</v>
+        <v>286765</v>
       </c>
       <c r="Q6" t="n">
-        <v>10781</v>
+        <v>215643</v>
       </c>
       <c r="R6" t="n">
-        <v>6221</v>
+        <v>141534</v>
       </c>
       <c r="S6" t="n">
-        <v>2581</v>
+        <v>66910</v>
       </c>
       <c r="T6" t="n">
-        <v>764</v>
+        <v>21935</v>
       </c>
       <c r="U6" t="n">
-        <v>204</v>
+        <v>4947</v>
       </c>
       <c r="V6" t="n">
-        <v>588363</v>
+        <v>10395195</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26833</v>
+        <v>31744</v>
       </c>
       <c r="C7" t="n">
-        <v>38936</v>
+        <v>27647</v>
       </c>
       <c r="D7" t="n">
-        <v>46481</v>
+        <v>28363</v>
       </c>
       <c r="E7" t="n">
-        <v>40081</v>
+        <v>37736</v>
       </c>
       <c r="F7" t="n">
-        <v>39510</v>
+        <v>52439</v>
       </c>
       <c r="G7" t="n">
-        <v>44130</v>
+        <v>43503</v>
       </c>
       <c r="H7" t="n">
-        <v>58270</v>
+        <v>39492</v>
       </c>
       <c r="I7" t="n">
-        <v>58198</v>
+        <v>46388</v>
       </c>
       <c r="J7" t="n">
-        <v>38140</v>
+        <v>51429</v>
       </c>
       <c r="K7" t="n">
-        <v>30927</v>
+        <v>29165</v>
       </c>
       <c r="L7" t="n">
-        <v>45858</v>
+        <v>48116</v>
       </c>
       <c r="M7" t="n">
-        <v>36243</v>
+        <v>29374</v>
       </c>
       <c r="N7" t="n">
-        <v>25050</v>
+        <v>33887</v>
       </c>
       <c r="O7" t="n">
-        <v>19554</v>
+        <v>24576</v>
       </c>
       <c r="P7" t="n">
-        <v>16851</v>
+        <v>16132</v>
       </c>
       <c r="Q7" t="n">
-        <v>10915</v>
+        <v>11705</v>
       </c>
       <c r="R7" t="n">
-        <v>6352</v>
+        <v>7884</v>
       </c>
       <c r="S7" t="n">
-        <v>2676</v>
+        <v>3803</v>
       </c>
       <c r="T7" t="n">
-        <v>791</v>
+        <v>1271</v>
       </c>
       <c r="U7" t="n">
-        <v>206</v>
+        <v>279</v>
       </c>
       <c r="V7" t="n">
-        <v>585999</v>
+        <v>564932</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27057</v>
+        <v>31845</v>
       </c>
       <c r="C8" t="n">
-        <v>36717</v>
+        <v>27798</v>
       </c>
       <c r="D8" t="n">
-        <v>43329</v>
+        <v>27217</v>
       </c>
       <c r="E8" t="n">
-        <v>40883</v>
+        <v>34689</v>
       </c>
       <c r="F8" t="n">
-        <v>38920</v>
+        <v>49251</v>
       </c>
       <c r="G8" t="n">
-        <v>41400</v>
+        <v>44249</v>
       </c>
       <c r="H8" t="n">
-        <v>55269</v>
+        <v>40609</v>
       </c>
       <c r="I8" t="n">
-        <v>57072</v>
+        <v>42983</v>
       </c>
       <c r="J8" t="n">
-        <v>42640</v>
+        <v>51815</v>
       </c>
       <c r="K8" t="n">
-        <v>29088</v>
+        <v>28969</v>
       </c>
       <c r="L8" t="n">
-        <v>45668</v>
+        <v>47778</v>
       </c>
       <c r="M8" t="n">
-        <v>38260</v>
+        <v>29579</v>
       </c>
       <c r="N8" t="n">
-        <v>25929</v>
+        <v>34017</v>
       </c>
       <c r="O8" t="n">
-        <v>19361</v>
+        <v>26271</v>
       </c>
       <c r="P8" t="n">
-        <v>16746</v>
+        <v>16799</v>
       </c>
       <c r="Q8" t="n">
-        <v>11445</v>
+        <v>11779</v>
       </c>
       <c r="R8" t="n">
-        <v>6490</v>
+        <v>8048</v>
       </c>
       <c r="S8" t="n">
-        <v>2889</v>
+        <v>3849</v>
       </c>
       <c r="T8" t="n">
-        <v>830</v>
+        <v>1304</v>
       </c>
       <c r="U8" t="n">
-        <v>190</v>
+        <v>324</v>
       </c>
       <c r="V8" t="n">
-        <v>580182</v>
+        <v>559174</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>27018</v>
+        <v>31506</v>
       </c>
       <c r="C9" t="n">
-        <v>33610</v>
+        <v>28473</v>
       </c>
       <c r="D9" t="n">
-        <v>39345</v>
+        <v>26706</v>
       </c>
       <c r="E9" t="n">
-        <v>43636</v>
+        <v>31965</v>
       </c>
       <c r="F9" t="n">
-        <v>37803</v>
+        <v>45268</v>
       </c>
       <c r="G9" t="n">
-        <v>39901</v>
+        <v>46358</v>
       </c>
       <c r="H9" t="n">
-        <v>53461</v>
+        <v>40370</v>
       </c>
       <c r="I9" t="n">
-        <v>56494</v>
+        <v>41017</v>
       </c>
       <c r="J9" t="n">
-        <v>46719</v>
+        <v>50276</v>
       </c>
       <c r="K9" t="n">
-        <v>28296</v>
+        <v>29043</v>
       </c>
       <c r="L9" t="n">
-        <v>41893</v>
+        <v>47911</v>
       </c>
       <c r="M9" t="n">
-        <v>39522</v>
+        <v>34636</v>
       </c>
       <c r="N9" t="n">
-        <v>27342</v>
+        <v>33923</v>
       </c>
       <c r="O9" t="n">
-        <v>19837</v>
+        <v>27825</v>
       </c>
       <c r="P9" t="n">
-        <v>16234</v>
+        <v>17905</v>
       </c>
       <c r="Q9" t="n">
-        <v>11531</v>
+        <v>12054</v>
       </c>
       <c r="R9" t="n">
-        <v>6616</v>
+        <v>8389</v>
       </c>
       <c r="S9" t="n">
-        <v>2818</v>
+        <v>4033</v>
       </c>
       <c r="T9" t="n">
-        <v>813</v>
+        <v>1365</v>
       </c>
       <c r="U9" t="n">
-        <v>225</v>
+        <v>327</v>
       </c>
       <c r="V9" t="n">
-        <v>573115</v>
+        <v>559349</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>29583</v>
+        <v>29361</v>
       </c>
       <c r="C10" t="n">
-        <v>28772</v>
+        <v>27314</v>
       </c>
       <c r="D10" t="n">
-        <v>38322</v>
+        <v>25560</v>
       </c>
       <c r="E10" t="n">
-        <v>53323</v>
+        <v>28665</v>
       </c>
       <c r="F10" t="n">
-        <v>44282</v>
+        <v>39555</v>
       </c>
       <c r="G10" t="n">
-        <v>40240</v>
+        <v>46686</v>
       </c>
       <c r="H10" t="n">
-        <v>47325</v>
+        <v>38447</v>
       </c>
       <c r="I10" t="n">
-        <v>52585</v>
+        <v>37810</v>
       </c>
       <c r="J10" t="n">
-        <v>49419</v>
+        <v>46969</v>
       </c>
       <c r="K10" t="n">
-        <v>28037</v>
+        <v>27992</v>
       </c>
       <c r="L10" t="n">
-        <v>30383</v>
+        <v>46079</v>
       </c>
       <c r="M10" t="n">
-        <v>35453</v>
+        <v>36886</v>
       </c>
       <c r="N10" t="n">
-        <v>26020</v>
+        <v>30244</v>
       </c>
       <c r="O10" t="n">
-        <v>17990</v>
+        <v>28119</v>
       </c>
       <c r="P10" t="n">
-        <v>14432</v>
+        <v>18374</v>
       </c>
       <c r="Q10" t="n">
-        <v>11216</v>
+        <v>12042</v>
       </c>
       <c r="R10" t="n">
-        <v>6640</v>
+        <v>8081</v>
       </c>
       <c r="S10" t="n">
-        <v>2941</v>
+        <v>4130</v>
       </c>
       <c r="T10" t="n">
-        <v>991</v>
+        <v>1395</v>
       </c>
       <c r="U10" t="n">
-        <v>216</v>
+        <v>333</v>
       </c>
       <c r="V10" t="n">
-        <v>558170</v>
+        <v>534042</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29287</v>
+        <v>34690</v>
       </c>
       <c r="C11" t="n">
-        <v>27475</v>
+        <v>42959</v>
       </c>
       <c r="D11" t="n">
-        <v>35005</v>
+        <v>36737</v>
       </c>
       <c r="E11" t="n">
-        <v>49709</v>
+        <v>36236</v>
       </c>
       <c r="F11" t="n">
-        <v>44679</v>
+        <v>43540</v>
       </c>
       <c r="G11" t="n">
-        <v>41047</v>
+        <v>61955</v>
       </c>
       <c r="H11" t="n">
-        <v>43530</v>
+        <v>53057</v>
       </c>
       <c r="I11" t="n">
-        <v>52620</v>
+        <v>47817</v>
       </c>
       <c r="J11" t="n">
-        <v>48748</v>
+        <v>56225</v>
       </c>
       <c r="K11" t="n">
-        <v>28057</v>
+        <v>45124</v>
       </c>
       <c r="L11" t="n">
-        <v>30362</v>
+        <v>64103</v>
       </c>
       <c r="M11" t="n">
-        <v>35267</v>
+        <v>60752</v>
       </c>
       <c r="N11" t="n">
-        <v>27499</v>
+        <v>35399</v>
       </c>
       <c r="O11" t="n">
-        <v>18851</v>
+        <v>41394</v>
       </c>
       <c r="P11" t="n">
-        <v>14234</v>
+        <v>28962</v>
       </c>
       <c r="Q11" t="n">
-        <v>11126</v>
+        <v>18429</v>
       </c>
       <c r="R11" t="n">
-        <v>6719</v>
+        <v>12368</v>
       </c>
       <c r="S11" t="n">
-        <v>2921</v>
+        <v>7252</v>
       </c>
       <c r="T11" t="n">
-        <v>955</v>
+        <v>2606</v>
       </c>
       <c r="U11" t="n">
-        <v>217</v>
+        <v>608</v>
       </c>
       <c r="V11" t="n">
-        <v>548307</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>29218</v>
-      </c>
-      <c r="C12" t="n">
-        <v>26422</v>
-      </c>
-      <c r="D12" t="n">
-        <v>32538</v>
-      </c>
-      <c r="E12" t="n">
-        <v>46446</v>
-      </c>
-      <c r="F12" t="n">
-        <v>46443</v>
-      </c>
-      <c r="G12" t="n">
-        <v>40691</v>
-      </c>
-      <c r="H12" t="n">
-        <v>41277</v>
-      </c>
-      <c r="I12" t="n">
-        <v>50753</v>
-      </c>
-      <c r="J12" t="n">
-        <v>48245</v>
-      </c>
-      <c r="K12" t="n">
-        <v>28556</v>
-      </c>
-      <c r="L12" t="n">
-        <v>34178</v>
-      </c>
-      <c r="M12" t="n">
-        <v>34827</v>
-      </c>
-      <c r="N12" t="n">
-        <v>29026</v>
-      </c>
-      <c r="O12" t="n">
-        <v>19638</v>
-      </c>
-      <c r="P12" t="n">
-        <v>14157</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>11199</v>
-      </c>
-      <c r="R12" t="n">
-        <v>7011</v>
-      </c>
-      <c r="S12" t="n">
-        <v>3152</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1003</v>
-      </c>
-      <c r="U12" t="n">
-        <v>227</v>
-      </c>
-      <c r="V12" t="n">
-        <v>545005</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>29506</v>
-      </c>
-      <c r="C13" t="n">
-        <v>26671</v>
-      </c>
-      <c r="D13" t="n">
-        <v>30136</v>
-      </c>
-      <c r="E13" t="n">
-        <v>43894</v>
-      </c>
-      <c r="F13" t="n">
-        <v>49044</v>
-      </c>
-      <c r="G13" t="n">
-        <v>40768</v>
-      </c>
-      <c r="H13" t="n">
-        <v>40032</v>
-      </c>
-      <c r="I13" t="n">
-        <v>49873</v>
-      </c>
-      <c r="J13" t="n">
-        <v>48795</v>
-      </c>
-      <c r="K13" t="n">
-        <v>28807</v>
-      </c>
-      <c r="L13" t="n">
-        <v>38439</v>
-      </c>
-      <c r="M13" t="n">
-        <v>32628</v>
-      </c>
-      <c r="N13" t="n">
-        <v>30826</v>
-      </c>
-      <c r="O13" t="n">
-        <v>21137</v>
-      </c>
-      <c r="P13" t="n">
-        <v>14606</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>11151</v>
-      </c>
-      <c r="R13" t="n">
-        <v>7302</v>
-      </c>
-      <c r="S13" t="n">
-        <v>3360</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1175</v>
-      </c>
-      <c r="U13" t="n">
-        <v>241</v>
-      </c>
-      <c r="V13" t="n">
-        <v>548391</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>575117</v>
-      </c>
-      <c r="C14" t="n">
-        <v>504836</v>
-      </c>
-      <c r="D14" t="n">
-        <v>539299</v>
-      </c>
-      <c r="E14" t="n">
-        <v>745694</v>
-      </c>
-      <c r="F14" t="n">
-        <v>985108</v>
-      </c>
-      <c r="G14" t="n">
-        <v>778959</v>
-      </c>
-      <c r="H14" t="n">
-        <v>738538</v>
-      </c>
-      <c r="I14" t="n">
-        <v>892759</v>
-      </c>
-      <c r="J14" t="n">
-        <v>945069</v>
-      </c>
-      <c r="K14" t="n">
-        <v>536190</v>
-      </c>
-      <c r="L14" t="n">
-        <v>797433</v>
-      </c>
-      <c r="M14" t="n">
-        <v>586543</v>
-      </c>
-      <c r="N14" t="n">
-        <v>606510</v>
-      </c>
-      <c r="O14" t="n">
-        <v>425407</v>
-      </c>
-      <c r="P14" t="n">
-        <v>286765</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>215643</v>
-      </c>
-      <c r="R14" t="n">
-        <v>141534</v>
-      </c>
-      <c r="S14" t="n">
-        <v>66910</v>
-      </c>
-      <c r="T14" t="n">
-        <v>21935</v>
-      </c>
-      <c r="U14" t="n">
-        <v>4947</v>
-      </c>
-      <c r="V14" t="n">
-        <v>10395195</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>31744</v>
-      </c>
-      <c r="C15" t="n">
-        <v>27647</v>
-      </c>
-      <c r="D15" t="n">
-        <v>28363</v>
-      </c>
-      <c r="E15" t="n">
-        <v>37736</v>
-      </c>
-      <c r="F15" t="n">
-        <v>52439</v>
-      </c>
-      <c r="G15" t="n">
-        <v>43503</v>
-      </c>
-      <c r="H15" t="n">
-        <v>39492</v>
-      </c>
-      <c r="I15" t="n">
-        <v>46388</v>
-      </c>
-      <c r="J15" t="n">
-        <v>51429</v>
-      </c>
-      <c r="K15" t="n">
-        <v>29165</v>
-      </c>
-      <c r="L15" t="n">
-        <v>48116</v>
-      </c>
-      <c r="M15" t="n">
-        <v>29374</v>
-      </c>
-      <c r="N15" t="n">
-        <v>33887</v>
-      </c>
-      <c r="O15" t="n">
-        <v>24576</v>
-      </c>
-      <c r="P15" t="n">
-        <v>16132</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>11705</v>
-      </c>
-      <c r="R15" t="n">
-        <v>7884</v>
-      </c>
-      <c r="S15" t="n">
-        <v>3803</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1271</v>
-      </c>
-      <c r="U15" t="n">
-        <v>279</v>
-      </c>
-      <c r="V15" t="n">
-        <v>564932</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>31845</v>
-      </c>
-      <c r="C16" t="n">
-        <v>27798</v>
-      </c>
-      <c r="D16" t="n">
-        <v>27217</v>
-      </c>
-      <c r="E16" t="n">
-        <v>34689</v>
-      </c>
-      <c r="F16" t="n">
-        <v>49251</v>
-      </c>
-      <c r="G16" t="n">
-        <v>44249</v>
-      </c>
-      <c r="H16" t="n">
-        <v>40609</v>
-      </c>
-      <c r="I16" t="n">
-        <v>42983</v>
-      </c>
-      <c r="J16" t="n">
-        <v>51815</v>
-      </c>
-      <c r="K16" t="n">
-        <v>28969</v>
-      </c>
-      <c r="L16" t="n">
-        <v>47778</v>
-      </c>
-      <c r="M16" t="n">
-        <v>29579</v>
-      </c>
-      <c r="N16" t="n">
-        <v>34017</v>
-      </c>
-      <c r="O16" t="n">
-        <v>26271</v>
-      </c>
-      <c r="P16" t="n">
-        <v>16799</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>11779</v>
-      </c>
-      <c r="R16" t="n">
-        <v>8048</v>
-      </c>
-      <c r="S16" t="n">
-        <v>3849</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1304</v>
-      </c>
-      <c r="U16" t="n">
-        <v>324</v>
-      </c>
-      <c r="V16" t="n">
-        <v>559174</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>31506</v>
-      </c>
-      <c r="C17" t="n">
-        <v>28473</v>
-      </c>
-      <c r="D17" t="n">
-        <v>26706</v>
-      </c>
-      <c r="E17" t="n">
-        <v>31965</v>
-      </c>
-      <c r="F17" t="n">
-        <v>45268</v>
-      </c>
-      <c r="G17" t="n">
-        <v>46358</v>
-      </c>
-      <c r="H17" t="n">
-        <v>40370</v>
-      </c>
-      <c r="I17" t="n">
-        <v>41017</v>
-      </c>
-      <c r="J17" t="n">
-        <v>50276</v>
-      </c>
-      <c r="K17" t="n">
-        <v>29043</v>
-      </c>
-      <c r="L17" t="n">
-        <v>47911</v>
-      </c>
-      <c r="M17" t="n">
-        <v>34636</v>
-      </c>
-      <c r="N17" t="n">
-        <v>33923</v>
-      </c>
-      <c r="O17" t="n">
-        <v>27825</v>
-      </c>
-      <c r="P17" t="n">
-        <v>17905</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>12054</v>
-      </c>
-      <c r="R17" t="n">
-        <v>8389</v>
-      </c>
-      <c r="S17" t="n">
-        <v>4033</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1365</v>
-      </c>
-      <c r="U17" t="n">
-        <v>327</v>
-      </c>
-      <c r="V17" t="n">
-        <v>559349</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>29361</v>
-      </c>
-      <c r="C18" t="n">
-        <v>27314</v>
-      </c>
-      <c r="D18" t="n">
-        <v>25560</v>
-      </c>
-      <c r="E18" t="n">
-        <v>28665</v>
-      </c>
-      <c r="F18" t="n">
-        <v>39555</v>
-      </c>
-      <c r="G18" t="n">
-        <v>46686</v>
-      </c>
-      <c r="H18" t="n">
-        <v>38447</v>
-      </c>
-      <c r="I18" t="n">
-        <v>37810</v>
-      </c>
-      <c r="J18" t="n">
-        <v>46969</v>
-      </c>
-      <c r="K18" t="n">
-        <v>27992</v>
-      </c>
-      <c r="L18" t="n">
-        <v>46079</v>
-      </c>
-      <c r="M18" t="n">
-        <v>36886</v>
-      </c>
-      <c r="N18" t="n">
-        <v>30244</v>
-      </c>
-      <c r="O18" t="n">
-        <v>28119</v>
-      </c>
-      <c r="P18" t="n">
-        <v>18374</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>12042</v>
-      </c>
-      <c r="R18" t="n">
-        <v>8081</v>
-      </c>
-      <c r="S18" t="n">
-        <v>4130</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1395</v>
-      </c>
-      <c r="U18" t="n">
-        <v>333</v>
-      </c>
-      <c r="V18" t="n">
-        <v>534042</v>
+        <v>730212</v>
       </c>
     </row>
   </sheetData>
